--- a/regions/3/biznes seqtori/sakutrebis formis mikhedvit.xlsx
+++ b/regions/3/biznes seqtori/sakutrebis formis mikhedvit.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0430561D-2F5D-4A68-857B-D7621B5A9942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
-  <si>
-    <t>ბიზენს სექტორი გურია</t>
-  </si>
   <si>
     <t>საწარმოთა ბრუნვა გურიის, საკუთრების ფორმების მიხედვით, მლნ. ლარი</t>
   </si>
@@ -44,11 +42,14 @@
   <si>
     <t>გამოშვებული პროდუქცია გურიის რეგიონში, საკუთრების ფორმების მიხედვით, მლნ. ლარი</t>
   </si>
+  <si>
+    <t>ბიზნეს სექტორი</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#.0;\-#.0;\-"/>
     <numFmt numFmtId="165" formatCode="#.0_);\(#.0\);\-"/>
@@ -207,7 +208,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -298,6 +299,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -333,6 +351,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,11 +543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,9 +558,9 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -537,7 +572,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -549,9 +584,9 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -563,7 +598,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -575,7 +610,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7">
         <v>2006</v>
@@ -622,10 +657,16 @@
       <c r="P5" s="8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="8">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="9">
         <v>79.400000000000006</v>
@@ -672,10 +713,16 @@
       <c r="P6" s="10">
         <v>542.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q6" s="10">
+        <v>637.39144008380106</v>
+      </c>
+      <c r="R6" s="10">
+        <v>710.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="12">
         <v>67.099999999999994</v>
@@ -722,10 +769,16 @@
       <c r="P7" s="14">
         <v>489.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="14">
+        <v>585.43246585616669</v>
+      </c>
+      <c r="R7" s="14">
+        <v>646.70000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="12">
         <v>7.9</v>
@@ -772,10 +825,16 @@
       <c r="P8" s="14">
         <v>50.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="14">
+        <v>49.68590622763449</v>
+      </c>
+      <c r="R8" s="14">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="12">
         <v>4.4000000000000004</v>
@@ -822,8 +881,14 @@
       <c r="P9" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="14">
+        <v>2.2730679999999999</v>
+      </c>
+      <c r="R9" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -835,9 +900,9 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -849,7 +914,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -861,7 +926,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7">
         <v>2006</v>
@@ -908,10 +973,16 @@
       <c r="P13" s="8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q13" s="8">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="9">
         <v>62.1</v>
@@ -958,10 +1029,16 @@
       <c r="P14" s="10">
         <v>405</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q14" s="10">
+        <v>508.60486390400007</v>
+      </c>
+      <c r="R14" s="10">
+        <v>565.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="12">
         <v>48.8</v>
@@ -1008,10 +1085,16 @@
       <c r="P15" s="14">
         <v>341.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q15" s="14">
+        <v>444.26573506400007</v>
+      </c>
+      <c r="R15" s="14">
+        <v>489.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="12">
         <v>8.6999999999999993</v>
@@ -1058,10 +1141,16 @@
       <c r="P16" s="14">
         <v>50.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q16" s="14">
+        <v>52.355862840000007</v>
+      </c>
+      <c r="R16" s="14">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="12">
         <v>4.5</v>
@@ -1108,8 +1197,14 @@
       <c r="P17" s="14">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="14">
+        <v>11.983266000000002</v>
+      </c>
+      <c r="R17" s="14">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1121,9 +1216,9 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -1135,7 +1230,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1149,7 +1244,7 @@
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="7">
         <v>2006</v>
@@ -1196,10 +1291,16 @@
       <c r="P21" s="8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q21" s="8">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="17">
         <v>5024</v>
@@ -1246,10 +1347,16 @@
       <c r="P22" s="18">
         <v>8121.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q22" s="18">
+        <v>8666.8996367580003</v>
+      </c>
+      <c r="R22" s="18">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="19">
         <v>3342</v>
@@ -1296,10 +1403,16 @@
       <c r="P23" s="22">
         <v>7239.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="22">
+        <v>7701.205996435001</v>
+      </c>
+      <c r="R23" s="22">
+        <v>7965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="19">
         <v>185</v>
@@ -1346,10 +1459,16 @@
       <c r="P24" s="22">
         <v>501</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q24" s="22">
+        <v>626.69364032299995</v>
+      </c>
+      <c r="R24" s="22">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="19">
         <v>1497</v>
@@ -1396,8 +1515,14 @@
       <c r="P25" s="22">
         <v>381</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="22">
+        <v>339</v>
+      </c>
+      <c r="R25" s="22">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1409,9 +1534,9 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1423,7 +1548,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1435,7 +1560,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="7">
         <v>2006</v>
@@ -1482,10 +1607,16 @@
       <c r="P29" s="8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q29" s="8">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="9">
         <v>120.2</v>
@@ -1532,10 +1663,16 @@
       <c r="P30" s="10">
         <v>708.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q30" s="10">
+        <v>763.4</v>
+      </c>
+      <c r="R30" s="10">
+        <v>951.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="12">
         <v>127.9</v>
@@ -1582,10 +1719,16 @@
       <c r="P31" s="14">
         <v>685.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q31" s="14">
+        <v>746.8</v>
+      </c>
+      <c r="R31" s="14">
+        <v>952.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="12">
         <v>192.1</v>
@@ -1632,10 +1775,16 @@
       <c r="P32" s="14">
         <v>786.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="14">
+        <v>708.1</v>
+      </c>
+      <c r="R32" s="14">
+        <v>870.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="12">
         <v>97.6</v>
@@ -1682,17 +1831,23 @@
       <c r="P33" s="14">
         <v>921.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="14">
+        <v>1131.4000000000001</v>
+      </c>
+      <c r="R33" s="14">
+        <v>1057.9000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B35" s="24"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B36" s="24"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B37" s="24"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B38" s="24"/>
     </row>
   </sheetData>
